--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44352,6 +44352,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44387,6 +44387,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44422,6 +44422,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44457,6 +44457,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44492,6 +44492,43 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,6 +44529,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>21600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44564,6 +44564,41 @@
         <v>21600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44599,6 +44599,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44634,6 +44634,41 @@
         <v>38700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>55800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44669,6 +44669,41 @@
         <v>55800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>61600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44704,6 +44704,41 @@
         <v>61600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>80600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44739,6 +44739,41 @@
         <v>80600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44774,6 +44774,76 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44844,6 +44844,78 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44916,6 +44916,43 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44953,6 +44953,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44990,6 +44990,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>54300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45025,6 +45025,41 @@
         <v>54300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45060,6 +45060,78 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45132,6 +45132,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45167,6 +45167,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74532,6 +74532,41 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74567,6 +74567,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2080" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74604,6 +74604,41 @@
         </is>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74639,6 +74639,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2082"/>
+  <dimension ref="A1:I2083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74674,6 +74674,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2083"/>
+  <dimension ref="A1:I2084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74709,6 +74709,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I2084" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2084"/>
+  <dimension ref="A1:I2085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74744,6 +74744,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2085"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74779,6 +74779,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74814,6 +74814,43 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2087" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74851,6 +74851,41 @@
         </is>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74886,6 +74886,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74921,6 +74921,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2090" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74958,6 +74958,41 @@
         </is>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>27200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74993,6 +74993,41 @@
         <v>27200</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7055.xlsx
+++ b/data/7055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75028,6 +75028,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>PLB</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2093" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
